--- a/BuildingConfigurations.xlsx
+++ b/BuildingConfigurations.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SATNOORK\Desktop\CLT Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517E7222-F43E-4920-A5BF-AB49398F305A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE72B30-5F6B-4313-B10D-B56225D00F07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D31AC252-B5F1-4BDB-9F16-0B4304E51EB5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{D31AC252-B5F1-4BDB-9F16-0B4304E51EB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Building-Katerra" sheetId="1" r:id="rId1"/>
     <sheet name="Building-MIT" sheetId="2" r:id="rId2"/>
-    <sheet name="Material Impacts" sheetId="3" r:id="rId3"/>
+    <sheet name="Impacts Example Sheet" sheetId="5" r:id="rId3"/>
+    <sheet name="Material Impacts- Energy" sheetId="3" r:id="rId4"/>
+    <sheet name="Material Impacts- CO2" sheetId="6" r:id="rId5"/>
+    <sheet name="Material Transport" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -106,8 +109,62 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F17D3AB9-B036-4655-B7F6-23B747031B04}</author>
+    <author>tc={D0944541-904F-44C2-92E3-9CC3CDDF1D4C}</author>
+  </authors>
+  <commentList>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{F17D3AB9-B036-4655-B7F6-23B747031B04}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Approximation; add numbers later</t>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="1" shapeId="0" xr:uid="{D0944541-904F-44C2-92E3-9CC3CDDF1D4C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Or tonne?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9F9E7DA3-1F13-41D7-A2D9-1789CD3CF35F}</author>
+    <author>tc={48C02BB2-DDEC-41BD-9AB0-DB6DAD0B26BD}</author>
+  </authors>
+  <commentList>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{9F9E7DA3-1F13-41D7-A2D9-1789CD3CF35F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Approximation; add numbers later</t>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="1" shapeId="0" xr:uid="{48C02BB2-DDEC-41BD-9AB0-DB6DAD0B26BD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Or tonne?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="165">
   <si>
     <t>Building:</t>
   </si>
@@ -257,9 +314,6 @@
   </si>
   <si>
     <t>m3</t>
-  </si>
-  <si>
-    <t>tonnes</t>
   </si>
   <si>
     <t>m2</t>
@@ -420,9 +474,6 @@
     <t>Gypsum Board</t>
   </si>
   <si>
-    <t>Insulations Extruded Polystyrene</t>
-  </si>
-  <si>
     <t>Other Air/Vapor Barrier</t>
   </si>
   <si>
@@ -453,87 +504,18 @@
     <t>Multiplier</t>
   </si>
   <si>
-    <t>Normalized Quantity</t>
-  </si>
-  <si>
     <t>LCA Material Name</t>
   </si>
   <si>
-    <t>Katerra CLT</t>
-  </si>
-  <si>
     <t>Hollow Structural Steel</t>
   </si>
   <si>
     <t>Portland Cement</t>
   </si>
   <si>
-    <t>Triple Glazed
-Soft Coated Air</t>
-  </si>
-  <si>
-    <t>Aluminum Window Frame</t>
-  </si>
-  <si>
-    <t>Rockwool® Stone Wool Insulation† (Rockwool North America
-2019)</t>
-  </si>
-  <si>
-    <t>Polypropylene Scrim Kraft Vapour
-Retarder Cloth</t>
-  </si>
-  <si>
-    <t>Kingspan Quadcore Insulated Metal Panel (Kingspan
-2019)</t>
-  </si>
-  <si>
-    <t>Aluminum
-Extrusion</t>
-  </si>
-  <si>
-    <t>Galvanized Studs</t>
-  </si>
-  <si>
-    <t>Clay Tile</t>
-  </si>
-  <si>
-    <t>Galvanized Sheet</t>
-  </si>
-  <si>
-    <t>Accoya® Modified
-Wood* (Accsys Technologies PLC 2015)</t>
-  </si>
-  <si>
-    <t>Modified Bitumen
-membrane</t>
-  </si>
-  <si>
-    <t>Polyiso Foam Board (unfaced)</t>
-  </si>
-  <si>
-    <t>Polyurethane flooring
-adhesive*</t>
-  </si>
-  <si>
-    <t>GAF
-Everguard© white TPO membrane 80
-mil</t>
-  </si>
-  <si>
-    <t>5/8" Glass Mat Gypsum Panel</t>
-  </si>
-  <si>
-    <t>SBS-Modified Bitumen Roofing Membrane (Asphalt Roofing Manufacturers Association
-2016)</t>
-  </si>
-  <si>
     <t>Extruded Polystyrene</t>
   </si>
   <si>
-    <t>6mil
-Polyethylene</t>
-  </si>
-  <si>
     <t>Glue Laminated Timber (PNW)</t>
   </si>
   <si>
@@ -549,12 +531,6 @@
     <t>Functional Unit</t>
   </si>
   <si>
-    <t>Impact: CO2 kg eq</t>
-  </si>
-  <si>
-    <t>Impact: Energy MJ</t>
-  </si>
-  <si>
     <t>Lighweight Concrete</t>
   </si>
   <si>
@@ -568,6 +544,126 @@
   </si>
   <si>
     <t>PT Steel</t>
+  </si>
+  <si>
+    <t>Glazing, triple</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>Insulations</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Quantity (kg)</t>
+  </si>
+  <si>
+    <t>Asphalt shingle</t>
+  </si>
+  <si>
+    <t>Asphalt</t>
+  </si>
+  <si>
+    <t>Roof Shingle</t>
+  </si>
+  <si>
+    <t>Ballast</t>
+  </si>
+  <si>
+    <t>Gypsum Plaster Board</t>
+  </si>
+  <si>
+    <t>Mineral Wool Board</t>
+  </si>
+  <si>
+    <t>Aluminium Extrusion</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Walls</t>
+  </si>
+  <si>
+    <t>Roof</t>
+  </si>
+  <si>
+    <t>LCA_Material_Name</t>
+  </si>
+  <si>
+    <t>Impact: Energy (MJ)</t>
+  </si>
+  <si>
+    <t>Impact: CO2 (kg eq)</t>
+  </si>
+  <si>
+    <t>Normalized_Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road </t>
+  </si>
+  <si>
+    <t>Rail</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLT </t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>A1-A3 (at gate)</t>
+  </si>
+  <si>
+    <t>A5 (construction)</t>
+  </si>
+  <si>
+    <t>A4 (transport)</t>
+  </si>
+  <si>
+    <t>Energy (CLT)</t>
+  </si>
+  <si>
+    <t>Material 1</t>
+  </si>
+  <si>
+    <t>Mat 2</t>
+  </si>
+  <si>
+    <t>Renewable, wind, solar, geothe - Cumulative Energy Demand</t>
+  </si>
+  <si>
+    <t>Renewable, biomass - Cumulative Energy Demand</t>
+  </si>
+  <si>
+    <t>Non renewable, fossil - Cumulative Energy Demand</t>
+  </si>
+  <si>
+    <t>Non-renewable, nuclear - Cumulative Energy Demand</t>
+  </si>
+  <si>
+    <t>Renewable, water - Cumulative Energy Demand</t>
+  </si>
+  <si>
+    <t>Non-renewable, biomass - Cumulative Energy Demand</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Steel Plate*</t>
+  </si>
+  <si>
+    <t>Factor</t>
   </si>
 </sst>
 </file>
@@ -577,7 +673,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,6 +703,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -622,18 +724,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -732,12 +834,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFBEBEBE"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBEBEBE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFBEBEBE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBEBEBE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBEBEBE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFBEBEBE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBEBEBE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBEBEBE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBEBEBE"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFBEBEBE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBEBEBE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFBEBEBE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBEBEBE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBEBEBE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBEBEBE"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -754,9 +1006,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -772,18 +1021,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -793,34 +1036,15 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -839,10 +1063,85 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -863,7 +1162,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Atnoorkar, Swaroop" id="{C7343204-C9A3-4261-9D8E-EEBFD41D038B}" userId="S::satnoork@nrel.gov::336d81e0-1666-40e8-9078-c7b64847ac10" providerId="AD"/>
+  <person displayName="Swaroop" id="{C7343204-C9A3-4261-9D8E-EEBFD41D038B}" userId="S::satnoork@nrel.gov::336d81e0-1666-40e8-9078-c7b64847ac10" providerId="AD"/>
 </personList>
 </file>
 
@@ -1188,12 +1487,34 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B19" dT="2020-06-22T15:22:28.65" personId="{C7343204-C9A3-4261-9D8E-EEBFD41D038B}" id="{F17D3AB9-B036-4655-B7F6-23B747031B04}">
+    <text>Approximation; add numbers later</text>
+  </threadedComment>
+  <threadedComment ref="H20" dT="2020-06-22T15:39:43.96" personId="{C7343204-C9A3-4261-9D8E-EEBFD41D038B}" id="{D0944541-904F-44C2-92E3-9CC3CDDF1D4C}">
+    <text>Or tonne?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B19" dT="2020-06-22T15:22:28.65" personId="{C7343204-C9A3-4261-9D8E-EEBFD41D038B}" id="{9F9E7DA3-1F13-41D7-A2D9-1789CD3CF35F}">
+    <text>Approximation; add numbers later</text>
+  </threadedComment>
+  <threadedComment ref="D20" dT="2020-06-22T15:39:43.96" personId="{C7343204-C9A3-4261-9D8E-EEBFD41D038B}" id="{48C02BB2-DDEC-41BD-9AB0-DB6DAD0B26BD}">
+    <text>Or tonne?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75069BD0-FD8D-48DE-9F7C-6C795C1ABEB7}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,7 +1579,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H5" s="3">
         <f>E5/E5</f>
@@ -1283,8 +1604,8 @@
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>114</v>
+      <c r="D8" t="s">
+        <v>140</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>15</v>
@@ -1293,21 +1614,24 @@
         <v>16</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E9" s="2">
         <v>1593</v>
@@ -1325,14 +1649,17 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E10" s="2">
         <v>33</v>
@@ -1350,14 +1677,17 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>54</v>
+      <c r="C11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="E11" s="2">
         <v>2291</v>
@@ -1375,14 +1705,17 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E12" s="2">
         <v>573</v>
@@ -1400,39 +1733,45 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E13" s="2">
-        <v>23.9</v>
+        <v>23900</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>23.9</v>
+        <v>23900</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>tonnes</v>
+        <v>kg</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E14" s="2">
         <v>534</v>
@@ -1450,20 +1789,23 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E15" s="2">
         <v>10519</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
@@ -1475,68 +1817,79 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E16" s="2">
-        <v>22.8</v>
+        <v>22800</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>22.8</v>
+        <v>22800</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>tonnes</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
+        <v>kg</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="30"/>
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
       <c r="E17" s="2">
-        <v>41.2</v>
+        <v>41200</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>41.2</v>
+        <v>41200</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>tonnes</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
+        <v>kg</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="E18" s="2">
         <v>242</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
@@ -1547,63 +1900,74 @@
         <v>m2</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E19" s="2">
-        <v>4.3</v>
+        <v>4300</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>4.3</v>
+        <v>4300</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>tonnes</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
+        <v>kg</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="31" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="30"/>
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>118</v>
+      </c>
       <c r="E20" s="2">
-        <v>18.3</v>
+        <v>18300</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>18.3</v>
+        <v>18300</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>tonnes</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="5" t="s">
+        <v>kg</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>54</v>
+      <c r="C21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="E21" s="2">
         <v>430</v>
@@ -1620,15 +1984,18 @@
         <v>m3</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" s="2">
         <v>95</v>
@@ -1645,40 +2012,46 @@
         <v>m3</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E23" s="2">
-        <v>4.2</v>
+        <v>4200</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="0"/>
-        <v>4.2</v>
+        <v>4200</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>tonnes</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+        <v>kg</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E24" s="2">
         <v>471</v>
@@ -1695,40 +2068,46 @@
         <v>m3</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E25" s="2">
-        <v>23</v>
+        <v>23000</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>23000</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>tonnes</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+        <v>kg</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26" s="2">
         <v>353</v>
@@ -1745,45 +2124,51 @@
         <v>m3</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E27" s="2">
-        <v>17.3</v>
+        <v>17300</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="0"/>
-        <v>17.3</v>
+        <v>17300</v>
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>tonnes</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>kg</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>62</v>
+      <c r="C28" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="8">
+        <v>123</v>
+      </c>
+      <c r="E28" s="7">
         <v>552</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G28" s="3">
@@ -1795,20 +2180,23 @@
         <v>m3</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>60</v>
+      <c r="C29" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="8">
+        <v>97</v>
+      </c>
+      <c r="E29" s="7">
         <v>20</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G29" s="3">
@@ -1820,45 +2208,51 @@
         <v>m3</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>61</v>
+      <c r="C30" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
-      </c>
-      <c r="E30" s="10">
-        <v>2.4</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>50</v>
+        <v>122</v>
+      </c>
+      <c r="E30" s="9">
+        <v>2400</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="0"/>
-        <v>2.4</v>
+        <v>2400</v>
       </c>
       <c r="H30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>tonnes</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="9" t="s">
+        <v>kg</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>60</v>
+      <c r="C31" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="8">
+        <v>97</v>
+      </c>
+      <c r="E31" s="7">
         <v>285</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G31" s="3">
@@ -1870,45 +2264,51 @@
         <v>m3</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="9" t="s">
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>61</v>
+      <c r="C32" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
-      </c>
-      <c r="E32" s="10">
-        <v>20.5</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>50</v>
+        <v>122</v>
+      </c>
+      <c r="E32" s="9">
+        <v>20500</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>20.5</v>
+        <v>20500</v>
       </c>
       <c r="H32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>tonnes</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="9" t="s">
+        <v>kg</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>63</v>
+      <c r="C33" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="8">
+        <v>97</v>
+      </c>
+      <c r="E33" s="7">
         <v>287</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G33" s="3">
@@ -1920,71 +2320,78 @@
         <v>m3</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="9" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>61</v>
+      <c r="C34" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" s="10">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>50</v>
+        <v>122</v>
+      </c>
+      <c r="E34" s="9">
+        <v>10200</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="0"/>
-        <v>10.199999999999999</v>
+        <v>10200</v>
       </c>
       <c r="H34" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>tonnes</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="9" t="s">
+        <v>kg</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>64</v>
+      <c r="C35" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" s="11">
-        <v>6.4</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>50</v>
+        <v>124</v>
+      </c>
+      <c r="E35" s="10">
+        <v>6400</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="0"/>
-        <v>6.4</v>
+        <v>6400</v>
       </c>
       <c r="H35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>tonnes</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B36" s="12" t="s">
+        <v>kg</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="14">
+      <c r="C36" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="12">
         <v>2363</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>51</v>
+      <c r="F36" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="0"/>
@@ -1995,46 +2402,50 @@
         <v>m2</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="15" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="17">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>50</v>
+      <c r="C37" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="14">
+        <v>2300</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>2300</v>
       </c>
       <c r="H37" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>tonnes</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B38" s="15" t="s">
+        <v>kg</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" s="18">
+      <c r="C38" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="15">
         <v>3383</v>
       </c>
-      <c r="F38" s="16" t="s">
-        <v>51</v>
+      <c r="F38" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="G38" s="3">
         <f t="shared" si="0"/>
@@ -2045,21 +2456,22 @@
         <v>m2</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="15" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="18">
+      <c r="C39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="15">
         <v>3383</v>
       </c>
-      <c r="F39" s="16" t="s">
-        <v>51</v>
+      <c r="F39" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="0"/>
@@ -2070,21 +2482,22 @@
         <v>m2</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B40" s="15" t="s">
+    <row r="40" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="18">
+      <c r="C40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="15">
         <v>3383</v>
       </c>
-      <c r="F40" s="16" t="s">
-        <v>51</v>
+      <c r="F40" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="G40" s="3">
         <f t="shared" si="0"/>
@@ -2095,21 +2508,22 @@
         <v>m2</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="15" t="s">
+    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="18">
+      <c r="C41" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="15">
         <v>3383</v>
       </c>
-      <c r="F41" s="16" t="s">
-        <v>51</v>
+      <c r="F41" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" si="0"/>
@@ -2120,71 +2534,78 @@
         <v>m2</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B42" s="16" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="17">
-        <v>21.7</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>50</v>
+      <c r="C42" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="14">
+        <v>21700</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="0"/>
-        <v>21.7</v>
+        <v>21700</v>
       </c>
       <c r="H42" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>tonnes</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="15" t="s">
+        <v>kg</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="E43" s="17">
-        <v>14.3</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>50</v>
+        <v>69</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="14">
+        <v>14300</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="G43" s="3">
         <f t="shared" si="0"/>
-        <v>14.3</v>
+        <v>14300</v>
       </c>
       <c r="H43" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>tonnes</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="19" t="s">
+        <v>kg</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" s="18">
+      <c r="C44" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="42"/>
+      <c r="E44" s="15">
         <v>2417</v>
       </c>
-      <c r="F44" s="16" t="s">
-        <v>51</v>
+      <c r="F44" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" si="0"/>
@@ -2195,21 +2616,22 @@
         <v>m2</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="19" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="18">
+      <c r="C45" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="42"/>
+      <c r="E45" s="15">
         <v>1015</v>
       </c>
-      <c r="F45" s="16" t="s">
-        <v>51</v>
+      <c r="F45" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" si="0"/>
@@ -2220,21 +2642,22 @@
         <v>m2</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B46" s="19" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" s="21">
+      <c r="C46" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="43"/>
+      <c r="E46" s="17">
         <v>474</v>
       </c>
-      <c r="F46" s="20" t="s">
-        <v>51</v>
+      <c r="F46" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="G46" s="3">
         <f t="shared" si="0"/>
@@ -2245,21 +2668,22 @@
         <v>m2</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="22" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="E47" s="8">
+      <c r="C47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="E47" s="7">
         <v>2956</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>51</v>
+      <c r="F47" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="G47" s="3">
         <f t="shared" si="0"/>
@@ -2270,21 +2694,22 @@
         <v>m2</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B48" s="23" t="s">
+    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="E48" s="8">
+      <c r="C48" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="21"/>
+      <c r="E48" s="7">
         <v>2956</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>51</v>
+      <c r="F48" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="G48" s="3">
         <f t="shared" si="0"/>
@@ -2295,21 +2720,22 @@
         <v>m2</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B49" s="23" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" s="8">
+      <c r="C49" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="21"/>
+      <c r="E49" s="7">
         <v>2956</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>51</v>
+      <c r="F49" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" si="0"/>
@@ -2320,21 +2746,22 @@
         <v>m2</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B50" s="24" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E50" s="8">
+      <c r="C50" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="7">
         <v>2956</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>51</v>
+      <c r="F50" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="G50" s="3">
         <f t="shared" si="0"/>
@@ -2345,21 +2772,22 @@
         <v>m2</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="24" t="s">
+    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E51" s="8">
+      <c r="C51" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="21"/>
+      <c r="E51" s="7">
         <v>2956</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>51</v>
+      <c r="F51" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="G51" s="3">
         <f t="shared" si="0"/>
@@ -2370,21 +2798,22 @@
         <v>m2</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B52" s="23" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="E52" s="8">
+      <c r="C52" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="7">
         <v>2956</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>51</v>
+      <c r="F52" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="G52" s="3">
         <f t="shared" si="0"/>
@@ -2395,21 +2824,22 @@
         <v>m2</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B53" s="23" t="s">
+    <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E53" s="8">
+      <c r="C53" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="21"/>
+      <c r="E53" s="7">
         <v>2956</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>51</v>
+      <c r="F53" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="G53" s="3">
         <f t="shared" si="0"/>
@@ -2420,20 +2850,21 @@
         <v>m2</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="23" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="8">
+      <c r="C54" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="21"/>
+      <c r="E54" s="7">
         <v>188</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G54" s="3">
@@ -2445,21 +2876,22 @@
         <v>m3</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B55" s="24" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D55" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="E55" s="25">
+      <c r="C55" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="22"/>
+      <c r="E55" s="18">
         <v>174</v>
       </c>
-      <c r="F55" s="9" t="s">
-        <v>51</v>
+      <c r="F55" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" si="0"/>
@@ -2472,7 +2904,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2480,17 +2913,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67824B17-37FE-41B2-A035-15AE5D657C34}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="17.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="17.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -2498,58 +2932,44 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+        <v>82</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="B3" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+        <v>84</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <v>498590</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2557,10 +2977,10 @@
         <f>B5*0.0929</f>
         <v>46319.010999999999</v>
       </c>
-      <c r="H5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5">
+      <c r="H5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="2">
         <f>'Building-Katerra'!E5/'Building-MIT'!F5</f>
         <v>0.33856475260233859</v>
       </c>
@@ -2574,587 +2994,631 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" t="s">
-        <v>145</v>
+      <c r="C9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="E9" s="26">
         <v>115180</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="2">
         <f>E9*$I$5</f>
         <v>38995.888204737363</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>111</v>
+      <c r="H9" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" t="s">
-        <v>145</v>
+      <c r="B10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="E10" s="26">
         <v>71424</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="2">
         <f t="shared" ref="G10:G35" si="0">E10*$I$5</f>
         <v>24181.648889869433</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>111</v>
+      <c r="H10" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s">
-        <v>145</v>
+      <c r="B11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="E11" s="26">
         <v>1989436</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
         <v>673552.90715818608</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>111</v>
+      <c r="H11" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" t="s">
-        <v>145</v>
+      <c r="B12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="E12" s="26">
         <v>38211</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="2">
         <f t="shared" si="0"/>
         <v>12936.89776168796</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>111</v>
+      <c r="H12" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" t="s">
-        <v>145</v>
+      <c r="B13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="E13" s="26">
         <v>215112</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="2">
         <f t="shared" si="0"/>
         <v>72829.341061794257</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>111</v>
+      <c r="H13" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" t="s">
-        <v>145</v>
+      <c r="B14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="E14" s="26">
         <v>61950</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="2">
         <f t="shared" si="0"/>
         <v>20974.086423714874</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>111</v>
+      <c r="H14" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" t="s">
-        <v>145</v>
+      <c r="B15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="E15" s="26">
         <v>14920</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="2">
         <f t="shared" si="0"/>
         <v>5051.3861088268914</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>111</v>
+      <c r="H15" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>92</v>
+      <c r="B16" s="27" t="s">
+        <v>91</v>
       </c>
       <c r="E16" s="26">
         <v>14939</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="2">
         <f t="shared" si="0"/>
         <v>5057.8188391263366</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>93</v>
+      <c r="H16" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="E17" s="26">
         <v>7231</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="2">
         <f t="shared" si="0"/>
         <v>2448.1617260675102</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>94</v>
+      <c r="H17" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="28" t="s">
+        <v>93</v>
       </c>
       <c r="E18" s="26">
         <v>79222</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="2">
         <f t="shared" si="0"/>
         <v>26821.776830662468</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>95</v>
+      <c r="H18" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="29" t="s">
+        <v>94</v>
       </c>
       <c r="E19" s="26">
         <v>2341</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19">
+      <c r="F19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="2">
         <f t="shared" si="0"/>
         <v>792.5800858420746</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>97</v>
+      <c r="H19" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E20" s="26">
         <v>1336706</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="2">
         <f t="shared" si="0"/>
         <v>452561.53619206161</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21"/>
+      <c r="H20" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="E21" s="26">
         <v>27332506</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21">
+      <c r="F21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="2">
         <f t="shared" si="0"/>
         <v>9253823.1318919361</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22"/>
+      <c r="H21" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="E22" s="26">
         <v>821381</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22">
+      <c r="F22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="2">
         <f t="shared" si="0"/>
         <v>278090.65505726147</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" t="s">
-        <v>98</v>
+      <c r="H22" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E23" s="26">
         <v>439422</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G23">
+      <c r="F23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="2">
         <f t="shared" si="0"/>
         <v>148772.80071802484</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>99</v>
+      <c r="H23" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E24" s="26">
         <v>712420</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24">
+      <c r="F24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="2">
         <f t="shared" si="0"/>
         <v>241200.30104895806</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
-        <v>89</v>
+      <c r="H24" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E25" s="26">
         <v>2473784</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G25">
+      <c r="F25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="2">
         <f t="shared" si="0"/>
         <v>837536.06795162358</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
-        <v>91</v>
+      <c r="H25" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E26" s="26">
         <v>171579</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26">
+      <c r="F26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="2">
         <f t="shared" si="0"/>
         <v>58090.60168675665</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
-        <v>100</v>
+      <c r="H26" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="E27" s="26">
         <v>26362</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27">
+      <c r="F27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="2">
         <f t="shared" si="0"/>
         <v>8925.2440081028508</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
-        <v>100</v>
+      <c r="H27" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="E28" s="26">
         <v>312482</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28">
+      <c r="F28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="2">
         <f t="shared" si="0"/>
         <v>105795.39102268397</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
-        <v>101</v>
+      <c r="H28" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="E29" s="26">
         <v>145367</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29">
+      <c r="F29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="2">
         <f t="shared" si="0"/>
         <v>49216.142391544156</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>102</v>
+      <c r="H29" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="E30" s="26">
         <v>60247</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30">
+      <c r="F30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="2">
         <f t="shared" si="0"/>
         <v>20397.510650033095</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>105</v>
+      <c r="H30" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E31" s="26">
         <v>145566</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G31">
+      <c r="F31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="2">
         <f t="shared" si="0"/>
         <v>49283.516777312019</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>103</v>
+      <c r="H31" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>101</v>
       </c>
       <c r="E32" s="26">
         <v>3190</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32">
+      <c r="F32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="2">
         <f t="shared" si="0"/>
         <v>1080.0215608014601</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>111</v>
+      <c r="H32" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="36" t="s">
-        <v>104</v>
+      <c r="B33" s="30" t="s">
+        <v>102</v>
       </c>
       <c r="E33" s="26">
         <v>9595</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G33">
+      <c r="F33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="2">
         <f t="shared" si="0"/>
         <v>3248.5288012194387</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>111</v>
+      <c r="H33" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>107</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E34" s="26">
         <v>297602</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G34">
+      <c r="F34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="2">
         <f t="shared" si="0"/>
         <v>100757.54750396116</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>111</v>
+      <c r="H34" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" t="s">
-        <v>146</v>
+      <c r="B35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="E35" s="26">
         <v>624964</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G35">
+      <c r="F35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="2">
         <f t="shared" si="0"/>
         <v>211590.78204536793</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>111</v>
+      <c r="H35" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3166,37 +3630,369 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEAFC79-3EB0-496C-A6C4-9B1A0B75D0B0}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3ACA4C-1D6A-4E72-B349-B393F7A30D7C}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEAFC79-3EB0-496C-A6C4-9B1A0B75D0B0}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2">
+        <v>5266.24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3">
+        <f>3514.76+438.7+17.16+2213.25</f>
+        <v>6183.87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4">
+        <f>SUM(B2:B3)/2</f>
+        <v>5725.0550000000003</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5">
+        <f>27.3+1.61+2.65*0.000001+0.0135+0.0321+0.219</f>
+        <v>29.174602650000001</v>
+      </c>
+      <c r="H5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="19">
+        <f>5.11+0.248+2.94*0.00001+0.0926+0.0157+0.029</f>
+        <v>5.4953294000000001</v>
+      </c>
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="19">
+        <v>56.023285100000003</v>
+      </c>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9">
+        <f>5.2+0.582+6.94*0.000001+0.0603+0.0206+0.0557</f>
+        <v>5.9186069399999992</v>
+      </c>
+      <c r="H9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10">
+        <f>1350+143+0.00356+7.36+8.97+30</f>
+        <v>1539.33356</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="19">
+        <f>21.9+1.87+1.18*0.00001+0.158+0.00874+0.217</f>
+        <v>24.153751799999998</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="H11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="19">
+        <v>9.5300000000000003E-3</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="H12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13">
+        <f>2*B11</f>
+        <v>48.307503599999997</v>
+      </c>
+      <c r="H13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14">
+        <v>62.9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15">
+        <f>0.0527+0.00983+4.7*0.0000001+0.000264+0.000632+0.000925</f>
+        <v>6.4351469999999994E-2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17">
+        <f>5.44+0.581+0.000238+0.168+0.0371+0.0472</f>
+        <v>6.2735380000000012</v>
+      </c>
+      <c r="H17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18">
+        <f>97.2+8.58+6.01*0.00001+0.283+0.289+0.628</f>
+        <v>106.9800601</v>
+      </c>
+      <c r="H18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="19">
+        <v>33</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20">
+        <f>68.8+2.5+0.823+30.4</f>
+        <v>102.523</v>
+      </c>
+      <c r="H20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90A0365-528C-4FC1-85AE-786489244D73}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
         <v>142</v>
       </c>
-      <c r="C1" t="s">
-        <v>141</v>
-      </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>5266.24</v>
@@ -3210,7 +4006,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <f>3514.76+438.7+17.16+2213.25</f>
@@ -3225,7 +4021,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <f>SUM(B2:B3)/2</f>
@@ -3241,7 +4037,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <f>27.3+1.61+2.65*0.000001+0.0135+0.0321+0.219</f>
@@ -3251,46 +4047,46 @@
         <v>2.5</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="29">
+        <v>120</v>
+      </c>
+      <c r="B6" s="19">
         <f>5.11+0.248+2.94*0.00001+0.0926+0.0157+0.029</f>
         <v>5.4953294000000001</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="19">
         <v>0.41599999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="29">
+      <c r="A8" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="19">
         <v>56.023285100000003</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="19">
         <v>2.5139999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B9">
         <f>5.2+0.582+6.94*0.000001+0.0603+0.0206+0.0557</f>
@@ -3300,12 +4096,12 @@
         <v>1.4</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10">
         <f>1350+143+0.00356+7.36+8.97+30</f>
@@ -3320,37 +4116,37 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="29">
+        <v>122</v>
+      </c>
+      <c r="B11" s="19">
         <f>21.9+1.87+1.18*0.00001+0.158+0.00874+0.217</f>
         <v>24.153751799999998</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="19">
         <v>1.6</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="29">
+        <v>123</v>
+      </c>
+      <c r="B12" s="19">
         <v>9.5300000000000003E-3</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="19">
         <f>0.122+0.0318+9.26*0.0000001+0.000665+0.00204+0.00292</f>
         <v>0.15942592600000002</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B13">
         <f>2*B11</f>
@@ -3361,10 +4157,316 @@
         <v>3.2</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14">
+        <v>62.9</v>
+      </c>
+      <c r="C14">
+        <f>745+142+0.00178+8+7.09+25.3</f>
+        <v>927.39178000000004</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15">
+        <f>0.0527+0.00983+4.7*0.0000001+0.000264+0.000632+0.000925</f>
+        <v>6.4351469999999994E-2</v>
+      </c>
+      <c r="C15">
+        <v>3.96E-3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17">
+        <f>5.44+0.581+0.000238+0.168+0.0371+0.0472</f>
+        <v>6.2735380000000012</v>
+      </c>
+      <c r="C17">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="D17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18">
+        <f>97.2+8.58+6.01*0.00001+0.283+0.289+0.628</f>
+        <v>106.9800601</v>
+      </c>
+      <c r="C18">
+        <v>31.2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="19">
+        <v>33</v>
+      </c>
+      <c r="C19" s="19">
+        <f>1.31+0.425+0.3+5.29*0.001+2.2*0.01-9.94*0.01</f>
+        <v>1.96289</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20">
+        <f>68.8+2.5+0.823+30.4</f>
+        <v>102.523</v>
+      </c>
+      <c r="C20">
+        <f>1.65*0.000001</f>
+        <v>1.6499999999999999E-6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DA212D-AB78-428A-889D-F36C7A62447D}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4">
+        <v>668</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5">
+        <v>117.66666666666667</v>
+      </c>
+      <c r="D5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6">
+        <v>153.75</v>
+      </c>
+      <c r="D6">
+        <v>2450.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8">
+        <v>57.5</v>
+      </c>
+      <c r="D8">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="19"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11">
+        <v>20.37142857142857</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13">
+        <v>47.571428571428569</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15">
+        <v>623.83333333333337</v>
+      </c>
+      <c r="D15">
+        <v>132.83333333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16">
+        <v>51.5</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17">
+        <v>2215.5</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18">
+        <v>160</v>
+      </c>
+      <c r="D18">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19">
+        <v>798.16666666666663</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21">
+        <v>1645.45</v>
+      </c>
+      <c r="D21">
+        <v>68.375</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>